--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value996.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value996.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.297950405516227</v>
+        <v>1.688323855400085</v>
       </c>
       <c r="B1">
-        <v>2.700062133028957</v>
+        <v>1.924356579780579</v>
       </c>
       <c r="C1">
-        <v>4.990426989265618</v>
+        <v>1.991190910339355</v>
       </c>
       <c r="D1">
-        <v>2.016158183173269</v>
+        <v>2.234512805938721</v>
       </c>
       <c r="E1">
-        <v>0.9007707687895843</v>
+        <v>2.858412504196167</v>
       </c>
     </row>
   </sheetData>
